--- a/biology/Histoire de la zoologie et de la botanique/Peter_Fredrik_Wahlberg/Peter_Fredrik_Wahlberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_Fredrik_Wahlberg/Peter_Fredrik_Wahlberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Fredrik Wahlberg, né le 19 juin 1800 à Göteborg et mort le 22 mai 1877 à Stockholm est un entomologiste et botaniste suédois qui fut également professeur à l'université de Stockholm. C'est le frère de Johan August Wahlberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il poursuit ses études à l'université d'Uppsala à partir de 1818 et reçoit son diplôme de magister philosophæ en 1824, de docteur en médecine en 1827. Il est nommé adjoint en médecine et en histoire naturelle à l'institut Karolinska en 1837.
 Wahlberg est nommé membre de l'académie royale des sciences de Suède en 1830. Il est en secrétaire de 1848 à 1866. Il est nommé membre de l'Académie suédoise d'agriculture en 1831 et membre honoraire en 1864.
@@ -545,7 +559,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île Wahlbergøya, la plus grande de Vaigattøyane, a été nommée d'après lui.
 Certaines espèces, comme Pseudocreobotra wahlbergi, reçoivent son nom.
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Flora gothoburgensis, 1822
 Anvisning till svenska foderväxternas kännedom [Traité pour connaître les plantes fourragères suédoises], 1835
